--- a/src/test/resources/ship.xlsx
+++ b/src/test/resources/ship.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eisut\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\eisuto\turboexcel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015F638-0563-4679-A198-D1EF0588EA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CBF22E-9616-47B6-9349-6E1A5123EA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1149" yWindow="1097" windowWidth="17314" windowHeight="8786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>时雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,13 @@
   <si>
     <t>夕立</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1989.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1989.2.2</t>
   </si>
 </sst>
 </file>
@@ -75,12 +82,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,29 +369,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2">
         <v>1001</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="3">
+        <v>2000.24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1002</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2100.23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ship.xlsx
+++ b/src/test/resources/ship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\eisuto\turboexcel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CBF22E-9616-47B6-9349-6E1A5123EA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F25D5F3-3B92-4A11-BC91-E943D56D60B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,28 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>吨位</t>
+  </si>
+  <si>
+    <t>下水日期</t>
+  </si>
   <si>
     <t>时雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1989.2.1</t>
   </si>
   <si>
     <t>夕立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1989.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1989.2.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +67,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,12 +93,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -85,10 +123,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,43 +409,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.92578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.0703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.0703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2">
+    <row r="1" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1001</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
         <v>2000.24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>1002</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2100.23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2000.24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
